--- a/M365_Migration_Phased_Checklist_Blank.xlsx
+++ b/M365_Migration_Phased_Checklist_Blank.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwoodward\Desktop\Work Stuff\Migrations\APS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ARStack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC8E3E8C-FA15-438F-81B2-61FB28832DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49BD7C5-0B99-4440-9670-2562B2FD05B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Discovery" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="112">
   <si>
     <t>Category</t>
   </si>
@@ -353,6 +353,12 @@
   </si>
   <si>
     <t>Block user generated auto forwarding rules</t>
+  </si>
+  <si>
+    <t>Configure Automatic Enrollment</t>
+  </si>
+  <si>
+    <t>Create Autopilot deployment profiles (if necessary)</t>
   </si>
 </sst>
 </file>
@@ -1236,10 +1242,10 @@
   <sheetPr>
     <tabColor theme="3" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1623,10 +1629,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
@@ -1637,10 +1643,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -1654,7 +1660,7 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
@@ -1668,7 +1674,7 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -1682,7 +1688,7 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
@@ -1693,10 +1699,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
@@ -1707,10 +1713,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
@@ -1724,7 +1730,7 @@
         <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
@@ -1738,7 +1744,7 @@
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
@@ -1752,7 +1758,7 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
@@ -1766,7 +1772,7 @@
         <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
@@ -1777,10 +1783,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
@@ -1791,10 +1797,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
@@ -1805,20 +1811,48 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>100</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" t="s">
         <v>102</v>
       </c>
-      <c r="C40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:D40">
+  <conditionalFormatting sqref="A2:D42">
     <cfRule type="expression" dxfId="8" priority="1">
       <formula>$C2="In Progress"</formula>
     </cfRule>
@@ -2001,7 +2035,7 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
